--- a/怪物源.xlsx
+++ b/怪物源.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>圆弧曲线2左侦查战斗队列</t>
   </si>
@@ -31,9 +31,6 @@
     <t>深V撤退随蜘蛛机</t>
   </si>
   <si>
-    <t>外射折跃机</t>
-  </si>
-  <si>
     <t>内射折跃机</t>
   </si>
   <si>
@@ -43,33 +40,18 @@
     <t>驱逐舰-单管</t>
   </si>
   <si>
-    <t>小岛1-1岗哨</t>
-  </si>
-  <si>
-    <t>小岛2-1岗哨</t>
-  </si>
-  <si>
     <t>弧线入场3左轰炸机</t>
   </si>
   <si>
-    <t>弧线入场5右巡航机</t>
-  </si>
-  <si>
     <t>武装直升机</t>
   </si>
   <si>
     <t>侦查直升机</t>
   </si>
   <si>
-    <t>十字星</t>
-  </si>
-  <si>
     <t>转向战机</t>
   </si>
   <si>
-    <t>固定炮击战机1档</t>
-  </si>
-  <si>
     <t>攻击自爆机</t>
   </si>
   <si>
@@ -100,27 +82,15 @@
     <t>交叉撤退左编队头机</t>
   </si>
   <si>
-    <t>圆弧曲线2左侦察机</t>
-  </si>
-  <si>
     <t>重型强击机</t>
   </si>
   <si>
-    <t>固定装饰小岛1</t>
-  </si>
-  <si>
-    <t>固定装饰小岛2</t>
-  </si>
-  <si>
     <t>固定导弹-速度750-预警1000</t>
   </si>
   <si>
     <t>科技机1</t>
   </si>
   <si>
-    <t>科技机3随</t>
-  </si>
-  <si>
     <t>定时炸弹</t>
   </si>
   <si>
@@ -133,63 +103,36 @@
     <t>レ字撤退左战斗机</t>
   </si>
   <si>
-    <t>圆弧曲线4左侦察机</t>
-  </si>
-  <si>
     <t>自爆机</t>
   </si>
   <si>
-    <t>固定诅咒战机2</t>
-  </si>
-  <si>
     <t>固定禁制战机2</t>
   </si>
   <si>
     <t>弧线入场1左轰炸机</t>
   </si>
   <si>
-    <t>交错入场1左轻型支援机</t>
-  </si>
-  <si>
-    <t>交错入场2左镭射战机</t>
-  </si>
-  <si>
     <t>护卫舰-单管-侧面入场1左</t>
   </si>
   <si>
-    <t>护卫舰-单管-侧面入场1右</t>
-  </si>
-  <si>
     <t>驱逐舰-单管-侧面入场1左</t>
   </si>
   <si>
-    <t>驱逐舰-单管-侧面入场1右</t>
-  </si>
-  <si>
     <t>拦截机左A</t>
   </si>
   <si>
     <t>拦截机右A</t>
   </si>
   <si>
-    <t>固定无敌蜜蜂机</t>
-  </si>
-  <si>
     <t>固定跟踪导弹-速度750-预警1500</t>
   </si>
   <si>
-    <t>轮流射击左1方阵机</t>
-  </si>
-  <si>
     <t>固定空</t>
   </si>
   <si>
     <t>弧线入场3右轰炸机</t>
   </si>
   <si>
-    <t>弧线入场5左巡航机</t>
-  </si>
-  <si>
     <t>无人机左</t>
   </si>
   <si>
@@ -199,145 +142,250 @@
     <t>弧线入场5左轰炸机</t>
   </si>
   <si>
-    <t>蜂巢左</t>
-  </si>
-  <si>
     <t>空雷</t>
   </si>
   <si>
     <t>レ字撤退左侦察机</t>
   </si>
   <si>
-    <t>工厂底板DA-X30-带柱</t>
-  </si>
-  <si>
     <t>深V撤退左蜘蛛机</t>
   </si>
   <si>
     <t>护卫舰-单管</t>
   </si>
   <si>
-    <t>驱逐舰-单管-斜上入场左B</t>
-  </si>
-  <si>
-    <t>驱逐舰-单管-斜上入场右B</t>
-  </si>
-  <si>
-    <t>交叉撤退右编队头机</t>
-  </si>
-  <si>
-    <t>圆弧曲线2右侦察机</t>
-  </si>
-  <si>
-    <t>固定导弹-速度750-预警800</t>
-  </si>
-  <si>
-    <t>护卫舰-单管-下方入场右1</t>
-  </si>
-  <si>
-    <t>交叉撤退右侦察机</t>
-  </si>
-  <si>
-    <t>レ字撤退右战斗机</t>
-  </si>
-  <si>
-    <t>圆弧曲线4右侦察机</t>
-  </si>
-  <si>
-    <t>弧线入场1右轰炸机</t>
-  </si>
-  <si>
-    <t>交错入场1右中型支援机</t>
-  </si>
-  <si>
-    <t>交错入场2右镭射战机</t>
-  </si>
-  <si>
-    <t>拦截机左B</t>
-  </si>
-  <si>
-    <t>拦截机右B</t>
-  </si>
-  <si>
-    <t>轮流射击左2方阵机</t>
-  </si>
-  <si>
-    <t>战斗机</t>
-  </si>
-  <si>
-    <t>无人机右</t>
-  </si>
-  <si>
-    <t>固定跟踪导弹-速度750-预警1150</t>
-  </si>
-  <si>
-    <t>レ字撤退右侦察机</t>
-  </si>
-  <si>
-    <t>审判者</t>
-  </si>
-  <si>
-    <t>驱逐舰-单管-斜上入场左C</t>
-  </si>
-  <si>
-    <t>驱逐舰-单管-斜上入场右C</t>
-  </si>
-  <si>
-    <t>护卫舰-单管-下方入场左2</t>
-  </si>
-  <si>
-    <t>固定导弹-速度750-预警850</t>
-  </si>
-  <si>
-    <t>拦截机左C</t>
-  </si>
-  <si>
-    <t>拦截机右C</t>
-  </si>
-  <si>
-    <t>轮流射击左3方阵机</t>
-  </si>
-  <si>
-    <t>固定装饰小岛3</t>
-  </si>
-  <si>
-    <t>护卫舰-单管-下方入场右2</t>
-  </si>
-  <si>
-    <t>轮流射击左4方阵机</t>
-  </si>
-  <si>
-    <t>固定装饰小岛4</t>
-  </si>
-  <si>
-    <t>护卫舰-单管-下方入场中央</t>
-  </si>
-  <si>
-    <t>轮流射击右1方阵机</t>
-  </si>
-  <si>
-    <t>轮流射击右2方阵机</t>
-  </si>
-  <si>
-    <t>障碍柱</t>
-  </si>
-  <si>
-    <t>轮流射击右3方阵机</t>
-  </si>
-  <si>
-    <t>轮流射击右4方阵机</t>
-  </si>
-  <si>
-    <t>轮流射击右5方阵机</t>
-  </si>
-  <si>
     <t>BOSS</t>
+  </si>
+  <si>
+    <t>弧线撤退左黄蜻蜓战机</t>
+  </si>
+  <si>
+    <t>固定水花召唤10s</t>
+  </si>
+  <si>
+    <t>圆弧曲线9左编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线9右编队机队列</t>
+  </si>
+  <si>
+    <t>巡洋舰-1三管1火箭弹-横向入场左2</t>
+  </si>
+  <si>
+    <t>巡洋舰-1三管1火箭弹-横向入场右2</t>
+  </si>
+  <si>
+    <t>弧线入场4左巡航机</t>
+  </si>
+  <si>
+    <t>弧线入场4左镭射战机</t>
+  </si>
+  <si>
+    <t>固定猫眼战机3</t>
+  </si>
+  <si>
+    <t>固定水花召唤2</t>
+  </si>
+  <si>
+    <t>飞燕预警机左1</t>
+  </si>
+  <si>
+    <t>固定慢撞撞机左1</t>
+  </si>
+  <si>
+    <t>固定慢撞撞机右1</t>
+  </si>
+  <si>
+    <t>空中炮艇</t>
+  </si>
+  <si>
+    <t>凤凰战机</t>
+  </si>
+  <si>
+    <t>追激战机</t>
+  </si>
+  <si>
+    <t>固定炮击战机2档</t>
+  </si>
+  <si>
+    <t>固定水花召唤4</t>
+  </si>
+  <si>
+    <t>圆弧曲线6左编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线8左编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线3右编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线1左侦查战斗队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线5左侦查战斗队列</t>
+  </si>
+  <si>
+    <t>科技机2左1</t>
+  </si>
+  <si>
+    <t>弧线入场5右轰炸机</t>
+  </si>
+  <si>
+    <t>固定禁制战机3</t>
+  </si>
+  <si>
+    <t>固定诅咒战机3</t>
+  </si>
+  <si>
+    <t>固定水花召唤6</t>
+  </si>
+  <si>
+    <t>正弦撤退左1黄蜻蜓战机</t>
+  </si>
+  <si>
+    <t>正弦撤退右1黄蜻蜓战机</t>
+  </si>
+  <si>
+    <t>圆弧曲线6右侦查战斗队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线3左编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线7右编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线9左编队机队列-3架</t>
+  </si>
+  <si>
+    <t>电子战机</t>
+  </si>
+  <si>
+    <t>交错入场1左轰炸机</t>
+  </si>
+  <si>
+    <t>交错入场1左镭射战机</t>
+  </si>
+  <si>
+    <t>固定超能战机3</t>
+  </si>
+  <si>
+    <t>交叉撤退左侦查战斗队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线8左侦查战斗队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线3左侦查战斗队列</t>
+  </si>
+  <si>
+    <t>交叉撤退右侦查战斗队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线8右编队机队列</t>
+  </si>
+  <si>
+    <t>运输气垫船无敌底座</t>
+  </si>
+  <si>
+    <t>电流怪</t>
+  </si>
+  <si>
+    <t>虎鲨潜艇</t>
+  </si>
+  <si>
+    <t>圆弧曲线5左编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线2右编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线1左编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线6右编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线2左编队机队列</t>
+  </si>
+  <si>
+    <t>レ字撤退左编队机队列</t>
+  </si>
+  <si>
+    <t>弧线入场4右巡航机</t>
+  </si>
+  <si>
+    <t>弧线入场4右镭射战机</t>
+  </si>
+  <si>
+    <t>固定火史莱姆4</t>
+  </si>
+  <si>
+    <t>镭射战机</t>
+  </si>
+  <si>
+    <t>圆弧曲线1右侦查战斗队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线6左战斗机</t>
+  </si>
+  <si>
+    <t>圆弧曲线8左战斗机</t>
+  </si>
+  <si>
+    <t>圆弧曲线6左侦查战斗队列</t>
+  </si>
+  <si>
+    <t>固定猫眼战机1</t>
+  </si>
+  <si>
+    <t>固定诅咒战机1</t>
+  </si>
+  <si>
+    <t>固定禁制战机1</t>
+  </si>
+  <si>
+    <t>圆弧曲线3左战斗机</t>
+  </si>
+  <si>
+    <t>圆弧曲线7左战斗机</t>
+  </si>
+  <si>
+    <t>レ字撤退左编队头机</t>
+  </si>
+  <si>
+    <t>レ字撤退左编队飞机</t>
+  </si>
+  <si>
+    <t>圆弧曲线5右编队机队列</t>
+  </si>
+  <si>
+    <t>弧线撤退左白蜻蜓战机</t>
+  </si>
+  <si>
+    <t>圆弧曲线3右侦查战斗队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线7左编队机队列</t>
+  </si>
+  <si>
+    <t>圆弧曲线7右侦查战斗队列</t>
+  </si>
+  <si>
+    <t>弧线入场1左中型支援机</t>
+  </si>
+  <si>
+    <t>弧线入场1左轻型支援机</t>
+  </si>
+  <si>
+    <t>固定超能战机2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,26 +517,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,23 +552,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A107"/>
+  <dimension ref="A1:A122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -727,537 +741,612 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>0</v>
+      <c r="A69" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
